--- a/data/dataset_2.xlsx
+++ b/data/dataset_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="333">
   <si>
     <t>Name</t>
   </si>
@@ -1014,6 +1014,12 @@
   </si>
   <si>
     <t>Trimestrial</t>
+  </si>
+  <si>
+    <t>FP.CPI.TOTL.ZG</t>
+  </si>
+  <si>
+    <t>namq_10_gdp</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KY7"/>
+  <dimension ref="A1:KY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7027,7 +7033,1832 @@
       </c>
     </row>
     <row r="7" spans="1:311" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="C7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="D7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="E7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="F7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="G7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="H7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="I7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="J7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="K7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="L7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="M7">
+        <v>9.8036101690000006</v>
+      </c>
+      <c r="N7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="O7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="P7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="Q7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="R7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="S7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="T7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="U7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="V7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="W7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="X7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="Y7">
+        <v>9.1168091170000007</v>
+      </c>
+      <c r="Z7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AA7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AB7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AC7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AD7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AE7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AF7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AG7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AH7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AI7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AJ7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AK7">
+        <v>5.2654482160000002</v>
+      </c>
+      <c r="AL7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AM7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AN7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AO7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AP7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AQ7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AR7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AS7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AT7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AU7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AV7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AW7">
+        <v>4.6610169490000004</v>
+      </c>
+      <c r="AX7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="AY7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="AZ7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BA7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BB7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BC7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BD7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BE7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BF7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BG7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BH7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BI7">
+        <v>6.7443467960000003</v>
+      </c>
+      <c r="BJ7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BK7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BL7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BM7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BN7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BO7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BP7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BQ7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BR7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BS7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BT7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BU7">
+        <v>3.5615171139999999</v>
+      </c>
+      <c r="BV7">
+        <v>3.930326038</v>
+      </c>
+      <c r="BW7">
+        <v>3.930326038</v>
+      </c>
+      <c r="BX7">
+        <v>3.930326038</v>
+      </c>
+      <c r="BY7">
+        <v>3.930326038</v>
+      </c>
+      <c r="BZ7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CA7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CB7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CC7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CD7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CE7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CF7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CG7">
+        <v>3.930326038</v>
+      </c>
+      <c r="CH7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CI7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CJ7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CK7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CL7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CM7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CN7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CO7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CP7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CQ7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CR7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CS7">
+        <v>7.9587451649999998</v>
+      </c>
+      <c r="CT7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CU7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CV7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CW7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CX7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CY7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="CZ7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DA7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DB7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DC7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DD7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DE7">
+        <v>6.0425125389999996</v>
+      </c>
+      <c r="DF7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DG7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DH7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DI7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DJ7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DK7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DL7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DM7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DN7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DO7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DP7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DQ7">
+        <v>4.2117117119999996</v>
+      </c>
+      <c r="DR7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DS7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DT7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DU7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DV7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DW7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DX7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DY7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="DZ7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="EA7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="EB7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="EC7">
+        <v>4.8555579570000003</v>
+      </c>
+      <c r="ED7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EE7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EF7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EG7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EH7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EI7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EJ7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EK7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EL7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EM7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EN7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EO7">
+        <v>3.9299209890000002</v>
+      </c>
+      <c r="EP7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EQ7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="ER7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="ES7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="ET7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EU7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EV7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EW7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EX7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EY7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="EZ7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="FA7">
+        <v>5.6521451709999999</v>
+      </c>
+      <c r="FB7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FC7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FD7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FE7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FF7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FG7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FH7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FI7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FJ7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FK7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FL7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FM7">
+        <v>1.7331998500000001</v>
+      </c>
+      <c r="FN7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FO7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FP7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FQ7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FR7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FS7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FT7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FU7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FV7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FW7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FX7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FY7">
+        <v>-0.22756627099999999</v>
+      </c>
+      <c r="FZ7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GA7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GB7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GC7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GD7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GE7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GF7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GG7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GH7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GI7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GJ7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GK7">
+        <v>-6.164468E-2</v>
+      </c>
+      <c r="GL7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GM7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GN7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GO7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GP7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GQ7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GR7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GS7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GT7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GU7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GV7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GW7">
+        <v>0.39476930700000001</v>
+      </c>
+      <c r="GX7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="GY7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="GZ7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HA7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HB7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HC7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HD7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HE7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HF7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HG7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HH7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HI7">
+        <v>2.3482428120000001</v>
+      </c>
+      <c r="HJ7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HK7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HL7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HM7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HN7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HO7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HP7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HQ7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HR7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HS7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HT7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HU7">
+        <v>2.8502479260000002</v>
+      </c>
+      <c r="HV7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="HW7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="HX7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="HY7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="HZ7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IA7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IB7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IC7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="ID7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IE7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IF7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IG7">
+        <v>3.3385863539999998</v>
+      </c>
+      <c r="IH7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="II7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IJ7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IK7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IL7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IM7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IN7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IO7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IP7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IQ7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IR7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IS7">
+        <v>3.3267438579999999</v>
+      </c>
+      <c r="IT7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IU7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IV7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IW7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IX7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IY7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="IZ7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JA7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JB7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JC7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JD7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JE7">
+        <v>5.1109653440000002</v>
+      </c>
+      <c r="JF7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JG7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JH7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JI7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JJ7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JK7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JL7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JM7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JN7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JO7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JP7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JQ7">
+        <v>14.608143950000001</v>
+      </c>
+      <c r="JR7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JS7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JT7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JU7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JV7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JW7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JX7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JY7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="JZ7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="KA7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="KB7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="KC7">
+        <v>17.124965970000002</v>
+      </c>
+      <c r="KD7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KE7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KF7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KG7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KH7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KI7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KJ7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KK7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KL7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KM7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KN7">
+        <v>3.703703704</v>
+      </c>
+      <c r="KO7">
+        <v>3.703703704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:311" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B8">
+        <v>11458.2</v>
+      </c>
+      <c r="C8">
+        <v>11458.2</v>
+      </c>
+      <c r="D8">
+        <v>11458.2</v>
+      </c>
+      <c r="E8">
+        <v>12609.7</v>
+      </c>
+      <c r="F8">
+        <v>12609.7</v>
+      </c>
+      <c r="G8">
+        <v>12609.7</v>
+      </c>
+      <c r="H8">
+        <v>13198.5</v>
+      </c>
+      <c r="I8">
+        <v>13198.5</v>
+      </c>
+      <c r="J8">
+        <v>13198.5</v>
+      </c>
+      <c r="K8">
+        <v>13988.9</v>
+      </c>
+      <c r="L8">
+        <v>13988.9</v>
+      </c>
+      <c r="M8">
+        <v>13988.9</v>
+      </c>
+      <c r="N8">
+        <v>12790.3</v>
+      </c>
+      <c r="O8">
+        <v>12790.3</v>
+      </c>
+      <c r="P8">
+        <v>12790.3</v>
+      </c>
+      <c r="Q8">
+        <v>15151.4</v>
+      </c>
+      <c r="R8">
+        <v>15151.4</v>
+      </c>
+      <c r="S8">
+        <v>15151.4</v>
+      </c>
+      <c r="T8">
+        <v>15793.1</v>
+      </c>
+      <c r="U8">
+        <v>15793.1</v>
+      </c>
+      <c r="V8">
+        <v>15793.1</v>
+      </c>
+      <c r="W8">
+        <v>16453.400000000001</v>
+      </c>
+      <c r="X8">
+        <v>16453.400000000001</v>
+      </c>
+      <c r="Y8">
+        <v>16453.400000000001</v>
+      </c>
+      <c r="Z8">
+        <v>16149.4</v>
+      </c>
+      <c r="AA8">
+        <v>16149.4</v>
+      </c>
+      <c r="AB8">
+        <v>16149.4</v>
+      </c>
+      <c r="AC8">
+        <v>17718</v>
+      </c>
+      <c r="AD8">
+        <v>17718</v>
+      </c>
+      <c r="AE8">
+        <v>17718</v>
+      </c>
+      <c r="AF8">
+        <v>18122.3</v>
+      </c>
+      <c r="AG8">
+        <v>18122.3</v>
+      </c>
+      <c r="AH8">
+        <v>18122.3</v>
+      </c>
+      <c r="AI8">
+        <v>19831.900000000001</v>
+      </c>
+      <c r="AJ8">
+        <v>19831.900000000001</v>
+      </c>
+      <c r="AK8">
+        <v>19831.900000000001</v>
+      </c>
+      <c r="AL8">
+        <v>17107</v>
+      </c>
+      <c r="AM8">
+        <v>17107</v>
+      </c>
+      <c r="AN8">
+        <v>17107</v>
+      </c>
+      <c r="AO8">
+        <v>18726</v>
+      </c>
+      <c r="AP8">
+        <v>18726</v>
+      </c>
+      <c r="AQ8">
+        <v>18726</v>
+      </c>
+      <c r="AR8">
+        <v>18753.099999999999</v>
+      </c>
+      <c r="AS8">
+        <v>18753.099999999999</v>
+      </c>
+      <c r="AT8">
+        <v>18753.099999999999</v>
+      </c>
+      <c r="AU8">
+        <v>20677.8</v>
+      </c>
+      <c r="AV8">
+        <v>20677.8</v>
+      </c>
+      <c r="AW8">
+        <v>20677.8</v>
+      </c>
+      <c r="AX8">
+        <v>18264.2</v>
+      </c>
+      <c r="AY8">
+        <v>18264.2</v>
+      </c>
+      <c r="AZ8">
+        <v>18264.2</v>
+      </c>
+      <c r="BA8">
+        <v>21220.5</v>
+      </c>
+      <c r="BB8">
+        <v>21220.5</v>
+      </c>
+      <c r="BC8">
+        <v>21220.5</v>
+      </c>
+      <c r="BD8">
+        <v>21478.400000000001</v>
+      </c>
+      <c r="BE8">
+        <v>21478.400000000001</v>
+      </c>
+      <c r="BF8">
+        <v>21478.400000000001</v>
+      </c>
+      <c r="BG8">
+        <v>22953.599999999999</v>
+      </c>
+      <c r="BH8">
+        <v>22953.599999999999</v>
+      </c>
+      <c r="BI8">
+        <v>22953.599999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>19913.599999999999</v>
+      </c>
+      <c r="BK8">
+        <v>19913.599999999999</v>
+      </c>
+      <c r="BL8">
+        <v>19913.599999999999</v>
+      </c>
+      <c r="BM8">
+        <v>22628</v>
+      </c>
+      <c r="BN8">
+        <v>22628</v>
+      </c>
+      <c r="BO8">
+        <v>22628</v>
+      </c>
+      <c r="BP8">
+        <v>23607.200000000001</v>
+      </c>
+      <c r="BQ8">
+        <v>23607.200000000001</v>
+      </c>
+      <c r="BR8">
+        <v>23607.200000000001</v>
+      </c>
+      <c r="BS8">
+        <v>24796.9</v>
+      </c>
+      <c r="BT8">
+        <v>24796.9</v>
+      </c>
+      <c r="BU8">
+        <v>24796.9</v>
+      </c>
+      <c r="BV8">
+        <v>20860.7</v>
+      </c>
+      <c r="BW8">
+        <v>20860.7</v>
+      </c>
+      <c r="BX8">
+        <v>20860.7</v>
+      </c>
+      <c r="BY8">
+        <v>22791.1</v>
+      </c>
+      <c r="BZ8">
+        <v>22791.1</v>
+      </c>
+      <c r="CA8">
+        <v>22791.1</v>
+      </c>
+      <c r="CB8">
+        <v>22832.6</v>
+      </c>
+      <c r="CC8">
+        <v>22832.6</v>
+      </c>
+      <c r="CD8">
+        <v>22832.6</v>
+      </c>
+      <c r="CE8">
+        <v>25521.5</v>
+      </c>
+      <c r="CF8">
+        <v>25521.5</v>
+      </c>
+      <c r="CG8">
+        <v>25521.5</v>
+      </c>
+      <c r="CH8">
+        <v>22962.799999999999</v>
+      </c>
+      <c r="CI8">
+        <v>22962.799999999999</v>
+      </c>
+      <c r="CJ8">
+        <v>22962.799999999999</v>
+      </c>
+      <c r="CK8">
+        <v>25587.599999999999</v>
+      </c>
+      <c r="CL8">
+        <v>25587.599999999999</v>
+      </c>
+      <c r="CM8">
+        <v>25587.599999999999</v>
+      </c>
+      <c r="CN8">
+        <v>25989.8</v>
+      </c>
+      <c r="CO8">
+        <v>25989.8</v>
+      </c>
+      <c r="CP8">
+        <v>25989.8</v>
+      </c>
+      <c r="CQ8">
+        <v>27833</v>
+      </c>
+      <c r="CR8">
+        <v>27833</v>
+      </c>
+      <c r="CS8">
+        <v>27833</v>
+      </c>
+      <c r="CT8">
+        <v>24399.4</v>
+      </c>
+      <c r="CU8">
+        <v>24399.4</v>
+      </c>
+      <c r="CV8">
+        <v>24399.4</v>
+      </c>
+      <c r="CW8">
+        <v>27622.2</v>
+      </c>
+      <c r="CX8">
+        <v>27622.2</v>
+      </c>
+      <c r="CY8">
+        <v>27622.2</v>
+      </c>
+      <c r="CZ8">
+        <v>28660.9</v>
+      </c>
+      <c r="DA8">
+        <v>28660.9</v>
+      </c>
+      <c r="DB8">
+        <v>28660.9</v>
+      </c>
+      <c r="DC8">
+        <v>27677.1</v>
+      </c>
+      <c r="DD8">
+        <v>27677.1</v>
+      </c>
+      <c r="DE8">
+        <v>27677.1</v>
+      </c>
+      <c r="DF8">
+        <v>20433.7</v>
+      </c>
+      <c r="DG8">
+        <v>20433.7</v>
+      </c>
+      <c r="DH8">
+        <v>20433.7</v>
+      </c>
+      <c r="DI8">
+        <v>22963.3</v>
+      </c>
+      <c r="DJ8">
+        <v>22963.3</v>
+      </c>
+      <c r="DK8">
+        <v>22963.3</v>
+      </c>
+      <c r="DL8">
+        <v>24361.5</v>
+      </c>
+      <c r="DM8">
+        <v>24361.5</v>
+      </c>
+      <c r="DN8">
+        <v>24361.5</v>
+      </c>
+      <c r="DO8">
+        <v>26894</v>
+      </c>
+      <c r="DP8">
+        <v>26894</v>
+      </c>
+      <c r="DQ8">
+        <v>26894</v>
+      </c>
+      <c r="DR8">
+        <v>22515.3</v>
+      </c>
+      <c r="DS8">
+        <v>22515.3</v>
+      </c>
+      <c r="DT8">
+        <v>22515.3</v>
+      </c>
+      <c r="DU8">
+        <v>24561.7</v>
+      </c>
+      <c r="DV8">
+        <v>24561.7</v>
+      </c>
+      <c r="DW8">
+        <v>24561.7</v>
+      </c>
+      <c r="DX8">
+        <v>24816.400000000001</v>
+      </c>
+      <c r="DY8">
+        <v>24816.400000000001</v>
+      </c>
+      <c r="DZ8">
+        <v>24816.400000000001</v>
+      </c>
+      <c r="EA8">
+        <v>27638.3</v>
+      </c>
+      <c r="EB8">
+        <v>27638.3</v>
+      </c>
+      <c r="EC8">
+        <v>27638.3</v>
+      </c>
+      <c r="ED8">
+        <v>23046.3</v>
+      </c>
+      <c r="EE8">
+        <v>23046.3</v>
+      </c>
+      <c r="EF8">
+        <v>23046.3</v>
+      </c>
+      <c r="EG8">
+        <v>26204.9</v>
+      </c>
+      <c r="EH8">
+        <v>26204.9</v>
+      </c>
+      <c r="EI8">
+        <v>26204.9</v>
+      </c>
+      <c r="EJ8">
+        <v>26482.9</v>
+      </c>
+      <c r="EK8">
+        <v>26482.9</v>
+      </c>
+      <c r="EL8">
+        <v>26482.9</v>
+      </c>
+      <c r="EM8">
+        <v>26185.8</v>
+      </c>
+      <c r="EN8">
+        <v>26185.8</v>
+      </c>
+      <c r="EO8">
+        <v>26185.8</v>
+      </c>
+      <c r="EP8">
+        <v>21779.599999999999</v>
+      </c>
+      <c r="EQ8">
+        <v>21779.599999999999</v>
+      </c>
+      <c r="ER8">
+        <v>21779.599999999999</v>
+      </c>
+      <c r="ES8">
+        <v>24169.8</v>
+      </c>
+      <c r="ET8">
+        <v>24169.8</v>
+      </c>
+      <c r="EU8">
+        <v>24169.8</v>
+      </c>
+      <c r="EV8">
+        <v>26222.1</v>
+      </c>
+      <c r="EW8">
+        <v>26222.1</v>
+      </c>
+      <c r="EX8">
+        <v>26222.1</v>
+      </c>
+      <c r="EY8">
+        <v>27983.4</v>
+      </c>
+      <c r="EZ8">
+        <v>27983.4</v>
+      </c>
+      <c r="FA8">
+        <v>27983.4</v>
+      </c>
+      <c r="FB8">
+        <v>22480.6</v>
+      </c>
+      <c r="FC8">
+        <v>22480.6</v>
+      </c>
+      <c r="FD8">
+        <v>22480.6</v>
+      </c>
+      <c r="FE8">
+        <v>25457.599999999999</v>
+      </c>
+      <c r="FF8">
+        <v>25457.599999999999</v>
+      </c>
+      <c r="FG8">
+        <v>25457.599999999999</v>
+      </c>
+      <c r="FH8">
+        <v>26304</v>
+      </c>
+      <c r="FI8">
+        <v>26304</v>
+      </c>
+      <c r="FJ8">
+        <v>26304</v>
+      </c>
+      <c r="FK8">
+        <v>27962.3</v>
+      </c>
+      <c r="FL8">
+        <v>27962.3</v>
+      </c>
+      <c r="FM8">
+        <v>27962.3</v>
+      </c>
+      <c r="FN8">
+        <v>23460.9</v>
+      </c>
+      <c r="FO8">
+        <v>23460.9</v>
+      </c>
+      <c r="FP8">
+        <v>23460.9</v>
+      </c>
+      <c r="FQ8">
+        <v>26512</v>
+      </c>
+      <c r="FR8">
+        <v>26512</v>
+      </c>
+      <c r="FS8">
+        <v>26512</v>
+      </c>
+      <c r="FT8">
+        <v>27247</v>
+      </c>
+      <c r="FU8">
+        <v>27247</v>
+      </c>
+      <c r="FV8">
+        <v>27247</v>
+      </c>
+      <c r="FW8">
+        <v>29120.6</v>
+      </c>
+      <c r="FX8">
+        <v>29120.6</v>
+      </c>
+      <c r="FY8">
+        <v>29120.6</v>
+      </c>
+      <c r="FZ8">
+        <v>24803.5</v>
+      </c>
+      <c r="GA8">
+        <v>24803.5</v>
+      </c>
+      <c r="GB8">
+        <v>24803.5</v>
+      </c>
+      <c r="GC8">
+        <v>27959.7</v>
+      </c>
+      <c r="GD8">
+        <v>27959.7</v>
+      </c>
+      <c r="GE8">
+        <v>27959.7</v>
+      </c>
+      <c r="GF8">
+        <v>28744.2</v>
+      </c>
+      <c r="GG8">
+        <v>28744.2</v>
+      </c>
+      <c r="GH8">
+        <v>28744.2</v>
+      </c>
+      <c r="GI8">
+        <v>31324.7</v>
+      </c>
+      <c r="GJ8">
+        <v>31324.7</v>
+      </c>
+      <c r="GK8">
+        <v>31324.7</v>
+      </c>
+      <c r="GL8">
+        <v>25468.1</v>
+      </c>
+      <c r="GM8">
+        <v>25468.1</v>
+      </c>
+      <c r="GN8">
+        <v>25468.1</v>
+      </c>
+      <c r="GO8">
+        <v>28922.9</v>
+      </c>
+      <c r="GP8">
+        <v>28922.9</v>
+      </c>
+      <c r="GQ8">
+        <v>28922.9</v>
+      </c>
+      <c r="GR8">
+        <v>29965.8</v>
+      </c>
+      <c r="GS8">
+        <v>29965.8</v>
+      </c>
+      <c r="GT8">
+        <v>29965.8</v>
+      </c>
+      <c r="GU8">
+        <v>32268</v>
+      </c>
+      <c r="GV8">
+        <v>32268</v>
+      </c>
+      <c r="GW8">
+        <v>32268</v>
+      </c>
+      <c r="GX8">
+        <v>27648.799999999999</v>
+      </c>
+      <c r="GY8">
+        <v>27648.799999999999</v>
+      </c>
+      <c r="GZ8">
+        <v>27648.799999999999</v>
+      </c>
+      <c r="HA8">
+        <v>31355.1</v>
+      </c>
+      <c r="HB8">
+        <v>31355.1</v>
+      </c>
+      <c r="HC8">
+        <v>31355.1</v>
+      </c>
+      <c r="HD8">
+        <v>32945.5</v>
+      </c>
+      <c r="HE8">
+        <v>32945.5</v>
+      </c>
+      <c r="HF8">
+        <v>32945.5</v>
+      </c>
+      <c r="HG8">
+        <v>35244.800000000003</v>
+      </c>
+      <c r="HH8">
+        <v>35244.800000000003</v>
+      </c>
+      <c r="HI8">
+        <v>35244.800000000003</v>
+      </c>
+      <c r="HJ8">
+        <v>30224.5</v>
+      </c>
+      <c r="HK8">
+        <v>30224.5</v>
+      </c>
+      <c r="HL8">
+        <v>30224.5</v>
+      </c>
+      <c r="HM8">
+        <v>33785.9</v>
+      </c>
+      <c r="HN8">
+        <v>33785.9</v>
+      </c>
+      <c r="HO8">
+        <v>33785.9</v>
+      </c>
+      <c r="HP8">
+        <v>34704</v>
+      </c>
+      <c r="HQ8">
+        <v>34704</v>
+      </c>
+      <c r="HR8">
+        <v>34704</v>
+      </c>
+      <c r="HS8">
+        <v>37735.199999999997</v>
+      </c>
+      <c r="HT8">
+        <v>37735.199999999997</v>
+      </c>
+      <c r="HU8">
+        <v>37735.199999999997</v>
+      </c>
+      <c r="HV8">
+        <v>32848.1</v>
+      </c>
+      <c r="HW8">
+        <v>32848.1</v>
+      </c>
+      <c r="HX8">
+        <v>32848.1</v>
+      </c>
+      <c r="HY8">
+        <v>36701.9</v>
+      </c>
+      <c r="HZ8">
+        <v>36701.9</v>
+      </c>
+      <c r="IA8">
+        <v>36701.9</v>
+      </c>
+      <c r="IB8">
+        <v>37605.199999999997</v>
+      </c>
+      <c r="IC8">
+        <v>37605.199999999997</v>
+      </c>
+      <c r="ID8">
+        <v>37605.199999999997</v>
+      </c>
+      <c r="IE8">
+        <v>40086.400000000001</v>
+      </c>
+      <c r="IF8">
+        <v>40086.400000000001</v>
+      </c>
+      <c r="IG8">
+        <v>40086.400000000001</v>
+      </c>
+      <c r="IH8">
+        <v>33063.800000000003</v>
+      </c>
+      <c r="II8">
+        <v>33063.800000000003</v>
+      </c>
+      <c r="IJ8">
+        <v>33063.800000000003</v>
+      </c>
+      <c r="IK8">
+        <v>31484.9</v>
+      </c>
+      <c r="IL8">
+        <v>31484.9</v>
+      </c>
+      <c r="IM8">
+        <v>31484.9</v>
+      </c>
+      <c r="IN8">
+        <v>35485.5</v>
+      </c>
+      <c r="IO8">
+        <v>35485.5</v>
+      </c>
+      <c r="IP8">
+        <v>35485.5</v>
+      </c>
+      <c r="IQ8">
+        <v>38775.300000000003</v>
+      </c>
+      <c r="IR8">
+        <v>38775.300000000003</v>
+      </c>
+      <c r="IS8">
+        <v>38775.300000000003</v>
+      </c>
+      <c r="IT8">
+        <v>31699</v>
+      </c>
+      <c r="IU8">
+        <v>31699</v>
+      </c>
+      <c r="IV8">
+        <v>31699</v>
+      </c>
+      <c r="IW8">
+        <v>38539.9</v>
+      </c>
+      <c r="IX8">
+        <v>38539.9</v>
+      </c>
+      <c r="IY8">
+        <v>38539.9</v>
+      </c>
+      <c r="IZ8">
+        <v>40065.9</v>
+      </c>
+      <c r="JA8">
+        <v>40065.9</v>
+      </c>
+      <c r="JB8">
+        <v>40065.9</v>
+      </c>
+      <c r="JC8">
+        <v>44645.8</v>
+      </c>
+      <c r="JD8">
+        <v>44645.8</v>
+      </c>
+      <c r="JE8">
+        <v>44645.8</v>
+      </c>
+      <c r="JF8">
+        <v>37563.699999999997</v>
+      </c>
+      <c r="JG8">
+        <v>37563.699999999997</v>
+      </c>
+      <c r="JH8">
+        <v>37563.699999999997</v>
+      </c>
+      <c r="JI8">
+        <v>42296.2</v>
+      </c>
+      <c r="JJ8">
+        <v>42296.2</v>
+      </c>
+      <c r="JK8">
+        <v>42296.2</v>
+      </c>
+      <c r="JL8">
+        <v>42466.1</v>
+      </c>
+      <c r="JM8">
+        <v>42466.1</v>
+      </c>
+      <c r="JN8">
+        <v>42466.1</v>
+      </c>
+      <c r="JO8">
+        <v>45770.5</v>
+      </c>
+      <c r="JP8">
+        <v>45770.5</v>
+      </c>
+      <c r="JQ8">
+        <v>45770.5</v>
+      </c>
+      <c r="JR8">
+        <v>40447.800000000003</v>
+      </c>
+      <c r="JS8">
+        <v>40447.800000000003</v>
+      </c>
+      <c r="JT8">
+        <v>40447.800000000003</v>
+      </c>
+      <c r="JU8">
+        <v>50248.9</v>
+      </c>
+      <c r="JV8">
+        <v>50248.9</v>
+      </c>
+      <c r="JW8">
+        <v>50248.9</v>
+      </c>
+      <c r="JX8">
+        <v>51183.1</v>
+      </c>
+      <c r="JY8">
+        <v>51183.1</v>
+      </c>
+      <c r="JZ8">
+        <v>51183.1</v>
+      </c>
+      <c r="KA8">
+        <v>55522.3</v>
+      </c>
+      <c r="KB8">
+        <v>55522.3</v>
+      </c>
+      <c r="KC8">
+        <v>55522.3</v>
+      </c>
+      <c r="KD8">
+        <v>42762.8</v>
+      </c>
+      <c r="KE8">
+        <v>42762.8</v>
+      </c>
+      <c r="KF8">
+        <v>42762.8</v>
+      </c>
+      <c r="KG8">
+        <v>52726.400000000001</v>
+      </c>
+      <c r="KH8">
+        <v>52726.400000000001</v>
+      </c>
+      <c r="KI8">
+        <v>52726.400000000001</v>
+      </c>
+      <c r="KJ8">
+        <v>53825.599999999999</v>
+      </c>
+      <c r="KK8">
+        <v>53825.599999999999</v>
+      </c>
+      <c r="KL8">
+        <v>53825.599999999999</v>
+      </c>
+      <c r="KM8">
+        <v>56452</v>
+      </c>
+      <c r="KN8">
+        <v>56452</v>
+      </c>
+      <c r="KO8">
+        <v>56452</v>
+      </c>
+      <c r="KP8">
+        <v>44236.9</v>
+      </c>
+      <c r="KQ8">
+        <v>44236.9</v>
+      </c>
+      <c r="KR8">
+        <v>44236.9</v>
+      </c>
+      <c r="KS8">
+        <v>54077.7</v>
+      </c>
+      <c r="KT8">
+        <v>54077.7</v>
+      </c>
+      <c r="KU8">
+        <v>54077.7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/dataset_2.xlsx
+++ b/data/dataset_2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="337">
   <si>
     <t>Name</t>
   </si>
@@ -1020,6 +1020,18 @@
   </si>
   <si>
     <t>namq_10_gdp</t>
+  </si>
+  <si>
+    <t>demo_pjan</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>2000-2024</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -1379,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,6 +1490,20 @@
         <v>324</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1486,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:KY8"/>
+  <dimension ref="A1:KY9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B9" sqref="B9:KX9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8860,6 +8886,911 @@
         <v>54077.7</v>
       </c>
     </row>
+    <row r="9" spans="1:311" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9">
+        <v>10221644</v>
+      </c>
+      <c r="C9">
+        <v>10221644</v>
+      </c>
+      <c r="D9">
+        <v>10221644</v>
+      </c>
+      <c r="E9">
+        <v>10221644</v>
+      </c>
+      <c r="F9">
+        <v>10221644</v>
+      </c>
+      <c r="G9">
+        <v>10221644</v>
+      </c>
+      <c r="H9">
+        <v>10221644</v>
+      </c>
+      <c r="I9">
+        <v>10221644</v>
+      </c>
+      <c r="J9">
+        <v>10221644</v>
+      </c>
+      <c r="K9">
+        <v>10221644</v>
+      </c>
+      <c r="L9">
+        <v>10221644</v>
+      </c>
+      <c r="M9">
+        <v>10221644</v>
+      </c>
+      <c r="N9">
+        <v>10200298</v>
+      </c>
+      <c r="O9">
+        <v>10200298</v>
+      </c>
+      <c r="P9">
+        <v>10200298</v>
+      </c>
+      <c r="Q9">
+        <v>10200298</v>
+      </c>
+      <c r="R9">
+        <v>10200298</v>
+      </c>
+      <c r="S9">
+        <v>10200298</v>
+      </c>
+      <c r="T9">
+        <v>10200298</v>
+      </c>
+      <c r="U9">
+        <v>10200298</v>
+      </c>
+      <c r="V9">
+        <v>10200298</v>
+      </c>
+      <c r="W9">
+        <v>10200298</v>
+      </c>
+      <c r="X9">
+        <v>10200298</v>
+      </c>
+      <c r="Y9">
+        <v>10200298</v>
+      </c>
+      <c r="Z9">
+        <v>10174853</v>
+      </c>
+      <c r="AA9">
+        <v>10174853</v>
+      </c>
+      <c r="AB9">
+        <v>10174853</v>
+      </c>
+      <c r="AC9">
+        <v>10174853</v>
+      </c>
+      <c r="AD9">
+        <v>10174853</v>
+      </c>
+      <c r="AE9">
+        <v>10174853</v>
+      </c>
+      <c r="AF9">
+        <v>10174853</v>
+      </c>
+      <c r="AG9">
+        <v>10174853</v>
+      </c>
+      <c r="AH9">
+        <v>10174853</v>
+      </c>
+      <c r="AI9">
+        <v>10174853</v>
+      </c>
+      <c r="AJ9">
+        <v>10174853</v>
+      </c>
+      <c r="AK9">
+        <v>10174853</v>
+      </c>
+      <c r="AL9">
+        <v>10142362</v>
+      </c>
+      <c r="AM9">
+        <v>10142362</v>
+      </c>
+      <c r="AN9">
+        <v>10142362</v>
+      </c>
+      <c r="AO9">
+        <v>10142362</v>
+      </c>
+      <c r="AP9">
+        <v>10142362</v>
+      </c>
+      <c r="AQ9">
+        <v>10142362</v>
+      </c>
+      <c r="AR9">
+        <v>10142362</v>
+      </c>
+      <c r="AS9">
+        <v>10142362</v>
+      </c>
+      <c r="AT9">
+        <v>10142362</v>
+      </c>
+      <c r="AU9">
+        <v>10142362</v>
+      </c>
+      <c r="AV9">
+        <v>10142362</v>
+      </c>
+      <c r="AW9">
+        <v>10142362</v>
+      </c>
+      <c r="AX9">
+        <v>10116742</v>
+      </c>
+      <c r="AY9">
+        <v>10116742</v>
+      </c>
+      <c r="AZ9">
+        <v>10116742</v>
+      </c>
+      <c r="BA9">
+        <v>10116742</v>
+      </c>
+      <c r="BB9">
+        <v>10116742</v>
+      </c>
+      <c r="BC9">
+        <v>10116742</v>
+      </c>
+      <c r="BD9">
+        <v>10116742</v>
+      </c>
+      <c r="BE9">
+        <v>10116742</v>
+      </c>
+      <c r="BF9">
+        <v>10116742</v>
+      </c>
+      <c r="BG9">
+        <v>10116742</v>
+      </c>
+      <c r="BH9">
+        <v>10116742</v>
+      </c>
+      <c r="BI9">
+        <v>10116742</v>
+      </c>
+      <c r="BJ9">
+        <v>10097549</v>
+      </c>
+      <c r="BK9">
+        <v>10097549</v>
+      </c>
+      <c r="BL9">
+        <v>10097549</v>
+      </c>
+      <c r="BM9">
+        <v>10097549</v>
+      </c>
+      <c r="BN9">
+        <v>10097549</v>
+      </c>
+      <c r="BO9">
+        <v>10097549</v>
+      </c>
+      <c r="BP9">
+        <v>10097549</v>
+      </c>
+      <c r="BQ9">
+        <v>10097549</v>
+      </c>
+      <c r="BR9">
+        <v>10097549</v>
+      </c>
+      <c r="BS9">
+        <v>10097549</v>
+      </c>
+      <c r="BT9">
+        <v>10097549</v>
+      </c>
+      <c r="BU9">
+        <v>10097549</v>
+      </c>
+      <c r="BV9">
+        <v>10076581</v>
+      </c>
+      <c r="BW9">
+        <v>10076581</v>
+      </c>
+      <c r="BX9">
+        <v>10076581</v>
+      </c>
+      <c r="BY9">
+        <v>10076581</v>
+      </c>
+      <c r="BZ9">
+        <v>10076581</v>
+      </c>
+      <c r="CA9">
+        <v>10076581</v>
+      </c>
+      <c r="CB9">
+        <v>10076581</v>
+      </c>
+      <c r="CC9">
+        <v>10076581</v>
+      </c>
+      <c r="CD9">
+        <v>10076581</v>
+      </c>
+      <c r="CE9">
+        <v>10076581</v>
+      </c>
+      <c r="CF9">
+        <v>10076581</v>
+      </c>
+      <c r="CG9">
+        <v>10076581</v>
+      </c>
+      <c r="CH9">
+        <v>10066158</v>
+      </c>
+      <c r="CI9">
+        <v>10066158</v>
+      </c>
+      <c r="CJ9">
+        <v>10066158</v>
+      </c>
+      <c r="CK9">
+        <v>10066158</v>
+      </c>
+      <c r="CL9">
+        <v>10066158</v>
+      </c>
+      <c r="CM9">
+        <v>10066158</v>
+      </c>
+      <c r="CN9">
+        <v>10066158</v>
+      </c>
+      <c r="CO9">
+        <v>10066158</v>
+      </c>
+      <c r="CP9">
+        <v>10066158</v>
+      </c>
+      <c r="CQ9">
+        <v>10066158</v>
+      </c>
+      <c r="CR9">
+        <v>10066158</v>
+      </c>
+      <c r="CS9">
+        <v>10066158</v>
+      </c>
+      <c r="CT9">
+        <v>10045401</v>
+      </c>
+      <c r="CU9">
+        <v>10045401</v>
+      </c>
+      <c r="CV9">
+        <v>10045401</v>
+      </c>
+      <c r="CW9">
+        <v>10045401</v>
+      </c>
+      <c r="CX9">
+        <v>10045401</v>
+      </c>
+      <c r="CY9">
+        <v>10045401</v>
+      </c>
+      <c r="CZ9">
+        <v>10045401</v>
+      </c>
+      <c r="DA9">
+        <v>10045401</v>
+      </c>
+      <c r="DB9">
+        <v>10045401</v>
+      </c>
+      <c r="DC9">
+        <v>10045401</v>
+      </c>
+      <c r="DD9">
+        <v>10045401</v>
+      </c>
+      <c r="DE9">
+        <v>10045401</v>
+      </c>
+      <c r="DF9">
+        <v>10030975</v>
+      </c>
+      <c r="DG9">
+        <v>10030975</v>
+      </c>
+      <c r="DH9">
+        <v>10030975</v>
+      </c>
+      <c r="DI9">
+        <v>10030975</v>
+      </c>
+      <c r="DJ9">
+        <v>10030975</v>
+      </c>
+      <c r="DK9">
+        <v>10030975</v>
+      </c>
+      <c r="DL9">
+        <v>10030975</v>
+      </c>
+      <c r="DM9">
+        <v>10030975</v>
+      </c>
+      <c r="DN9">
+        <v>10030975</v>
+      </c>
+      <c r="DO9">
+        <v>10030975</v>
+      </c>
+      <c r="DP9">
+        <v>10030975</v>
+      </c>
+      <c r="DQ9">
+        <v>10030975</v>
+      </c>
+      <c r="DR9">
+        <v>10014324</v>
+      </c>
+      <c r="DS9">
+        <v>10014324</v>
+      </c>
+      <c r="DT9">
+        <v>10014324</v>
+      </c>
+      <c r="DU9">
+        <v>10014324</v>
+      </c>
+      <c r="DV9">
+        <v>10014324</v>
+      </c>
+      <c r="DW9">
+        <v>10014324</v>
+      </c>
+      <c r="DX9">
+        <v>10014324</v>
+      </c>
+      <c r="DY9">
+        <v>10014324</v>
+      </c>
+      <c r="DZ9">
+        <v>10014324</v>
+      </c>
+      <c r="EA9">
+        <v>10014324</v>
+      </c>
+      <c r="EB9">
+        <v>10014324</v>
+      </c>
+      <c r="EC9">
+        <v>10014324</v>
+      </c>
+      <c r="ED9">
+        <v>9985722</v>
+      </c>
+      <c r="EE9">
+        <v>9985722</v>
+      </c>
+      <c r="EF9">
+        <v>9985722</v>
+      </c>
+      <c r="EG9">
+        <v>9985722</v>
+      </c>
+      <c r="EH9">
+        <v>9985722</v>
+      </c>
+      <c r="EI9">
+        <v>9985722</v>
+      </c>
+      <c r="EJ9">
+        <v>9985722</v>
+      </c>
+      <c r="EK9">
+        <v>9985722</v>
+      </c>
+      <c r="EL9">
+        <v>9985722</v>
+      </c>
+      <c r="EM9">
+        <v>9985722</v>
+      </c>
+      <c r="EN9">
+        <v>9985722</v>
+      </c>
+      <c r="EO9">
+        <v>9985722</v>
+      </c>
+      <c r="EP9">
+        <v>9931925</v>
+      </c>
+      <c r="EQ9">
+        <v>9931925</v>
+      </c>
+      <c r="ER9">
+        <v>9931925</v>
+      </c>
+      <c r="ES9">
+        <v>9931925</v>
+      </c>
+      <c r="ET9">
+        <v>9931925</v>
+      </c>
+      <c r="EU9">
+        <v>9931925</v>
+      </c>
+      <c r="EV9">
+        <v>9931925</v>
+      </c>
+      <c r="EW9">
+        <v>9931925</v>
+      </c>
+      <c r="EX9">
+        <v>9931925</v>
+      </c>
+      <c r="EY9">
+        <v>9931925</v>
+      </c>
+      <c r="EZ9">
+        <v>9931925</v>
+      </c>
+      <c r="FA9">
+        <v>9931925</v>
+      </c>
+      <c r="FB9">
+        <v>9895250</v>
+      </c>
+      <c r="FC9">
+        <v>9895250</v>
+      </c>
+      <c r="FD9">
+        <v>9895250</v>
+      </c>
+      <c r="FE9">
+        <v>9895250</v>
+      </c>
+      <c r="FF9">
+        <v>9895250</v>
+      </c>
+      <c r="FG9">
+        <v>9895250</v>
+      </c>
+      <c r="FH9">
+        <v>9895250</v>
+      </c>
+      <c r="FI9">
+        <v>9895250</v>
+      </c>
+      <c r="FJ9">
+        <v>9895250</v>
+      </c>
+      <c r="FK9">
+        <v>9895250</v>
+      </c>
+      <c r="FL9">
+        <v>9895250</v>
+      </c>
+      <c r="FM9">
+        <v>9895250</v>
+      </c>
+      <c r="FN9">
+        <v>9850217</v>
+      </c>
+      <c r="FO9">
+        <v>9850217</v>
+      </c>
+      <c r="FP9">
+        <v>9850217</v>
+      </c>
+      <c r="FQ9">
+        <v>9850217</v>
+      </c>
+      <c r="FR9">
+        <v>9850217</v>
+      </c>
+      <c r="FS9">
+        <v>9850217</v>
+      </c>
+      <c r="FT9">
+        <v>9850217</v>
+      </c>
+      <c r="FU9">
+        <v>9850217</v>
+      </c>
+      <c r="FV9">
+        <v>9850217</v>
+      </c>
+      <c r="FW9">
+        <v>9850217</v>
+      </c>
+      <c r="FX9">
+        <v>9850217</v>
+      </c>
+      <c r="FY9">
+        <v>9850217</v>
+      </c>
+      <c r="FZ9">
+        <v>9815858</v>
+      </c>
+      <c r="GA9">
+        <v>9815858</v>
+      </c>
+      <c r="GB9">
+        <v>9815858</v>
+      </c>
+      <c r="GC9">
+        <v>9815858</v>
+      </c>
+      <c r="GD9">
+        <v>9815858</v>
+      </c>
+      <c r="GE9">
+        <v>9815858</v>
+      </c>
+      <c r="GF9">
+        <v>9815858</v>
+      </c>
+      <c r="GG9">
+        <v>9815858</v>
+      </c>
+      <c r="GH9">
+        <v>9815858</v>
+      </c>
+      <c r="GI9">
+        <v>9815858</v>
+      </c>
+      <c r="GJ9">
+        <v>9815858</v>
+      </c>
+      <c r="GK9">
+        <v>9815858</v>
+      </c>
+      <c r="GL9">
+        <v>9779652</v>
+      </c>
+      <c r="GM9">
+        <v>9779652</v>
+      </c>
+      <c r="GN9">
+        <v>9779652</v>
+      </c>
+      <c r="GO9">
+        <v>9779652</v>
+      </c>
+      <c r="GP9">
+        <v>9779652</v>
+      </c>
+      <c r="GQ9">
+        <v>9779652</v>
+      </c>
+      <c r="GR9">
+        <v>9779652</v>
+      </c>
+      <c r="GS9">
+        <v>9779652</v>
+      </c>
+      <c r="GT9">
+        <v>9779652</v>
+      </c>
+      <c r="GU9">
+        <v>9779652</v>
+      </c>
+      <c r="GV9">
+        <v>9779652</v>
+      </c>
+      <c r="GW9">
+        <v>9779652</v>
+      </c>
+      <c r="GX9">
+        <v>9739857</v>
+      </c>
+      <c r="GY9">
+        <v>9739857</v>
+      </c>
+      <c r="GZ9">
+        <v>9739857</v>
+      </c>
+      <c r="HA9">
+        <v>9739857</v>
+      </c>
+      <c r="HB9">
+        <v>9739857</v>
+      </c>
+      <c r="HC9">
+        <v>9739857</v>
+      </c>
+      <c r="HD9">
+        <v>9739857</v>
+      </c>
+      <c r="HE9">
+        <v>9739857</v>
+      </c>
+      <c r="HF9">
+        <v>9739857</v>
+      </c>
+      <c r="HG9">
+        <v>9739857</v>
+      </c>
+      <c r="HH9">
+        <v>9739857</v>
+      </c>
+      <c r="HI9">
+        <v>9739857</v>
+      </c>
+      <c r="HJ9">
+        <v>9713655</v>
+      </c>
+      <c r="HK9">
+        <v>9713655</v>
+      </c>
+      <c r="HL9">
+        <v>9713655</v>
+      </c>
+      <c r="HM9">
+        <v>9713655</v>
+      </c>
+      <c r="HN9">
+        <v>9713655</v>
+      </c>
+      <c r="HO9">
+        <v>9713655</v>
+      </c>
+      <c r="HP9">
+        <v>9713655</v>
+      </c>
+      <c r="HQ9">
+        <v>9713655</v>
+      </c>
+      <c r="HR9">
+        <v>9713655</v>
+      </c>
+      <c r="HS9">
+        <v>9713655</v>
+      </c>
+      <c r="HT9">
+        <v>9713655</v>
+      </c>
+      <c r="HU9">
+        <v>9713655</v>
+      </c>
+      <c r="HV9">
+        <v>9700272</v>
+      </c>
+      <c r="HW9">
+        <v>9700272</v>
+      </c>
+      <c r="HX9">
+        <v>9700272</v>
+      </c>
+      <c r="HY9">
+        <v>9700272</v>
+      </c>
+      <c r="HZ9">
+        <v>9700272</v>
+      </c>
+      <c r="IA9">
+        <v>9700272</v>
+      </c>
+      <c r="IB9">
+        <v>9700272</v>
+      </c>
+      <c r="IC9">
+        <v>9700272</v>
+      </c>
+      <c r="ID9">
+        <v>9700272</v>
+      </c>
+      <c r="IE9">
+        <v>9700272</v>
+      </c>
+      <c r="IF9">
+        <v>9700272</v>
+      </c>
+      <c r="IG9">
+        <v>9700272</v>
+      </c>
+      <c r="IH9">
+        <v>9689376</v>
+      </c>
+      <c r="II9">
+        <v>9689376</v>
+      </c>
+      <c r="IJ9">
+        <v>9689376</v>
+      </c>
+      <c r="IK9">
+        <v>9689376</v>
+      </c>
+      <c r="IL9">
+        <v>9689376</v>
+      </c>
+      <c r="IM9">
+        <v>9689376</v>
+      </c>
+      <c r="IN9">
+        <v>9689376</v>
+      </c>
+      <c r="IO9">
+        <v>9689376</v>
+      </c>
+      <c r="IP9">
+        <v>9689376</v>
+      </c>
+      <c r="IQ9">
+        <v>9689376</v>
+      </c>
+      <c r="IR9">
+        <v>9689376</v>
+      </c>
+      <c r="IS9">
+        <v>9689376</v>
+      </c>
+      <c r="IT9">
+        <v>9651461</v>
+      </c>
+      <c r="IU9">
+        <v>9651461</v>
+      </c>
+      <c r="IV9">
+        <v>9651461</v>
+      </c>
+      <c r="IW9">
+        <v>9651461</v>
+      </c>
+      <c r="IX9">
+        <v>9651461</v>
+      </c>
+      <c r="IY9">
+        <v>9651461</v>
+      </c>
+      <c r="IZ9">
+        <v>9651461</v>
+      </c>
+      <c r="JA9">
+        <v>9651461</v>
+      </c>
+      <c r="JB9">
+        <v>9651461</v>
+      </c>
+      <c r="JC9">
+        <v>9651461</v>
+      </c>
+      <c r="JD9">
+        <v>9651461</v>
+      </c>
+      <c r="JE9">
+        <v>9651461</v>
+      </c>
+      <c r="JF9">
+        <v>9610403</v>
+      </c>
+      <c r="JG9">
+        <v>9610403</v>
+      </c>
+      <c r="JH9">
+        <v>9610403</v>
+      </c>
+      <c r="JI9">
+        <v>9610403</v>
+      </c>
+      <c r="JJ9">
+        <v>9610403</v>
+      </c>
+      <c r="JK9">
+        <v>9610403</v>
+      </c>
+      <c r="JL9">
+        <v>9610403</v>
+      </c>
+      <c r="JM9">
+        <v>9610403</v>
+      </c>
+      <c r="JN9">
+        <v>9610403</v>
+      </c>
+      <c r="JO9">
+        <v>9610403</v>
+      </c>
+      <c r="JP9">
+        <v>9610403</v>
+      </c>
+      <c r="JQ9">
+        <v>9610403</v>
+      </c>
+      <c r="JR9">
+        <v>9599744</v>
+      </c>
+      <c r="JS9">
+        <v>9599744</v>
+      </c>
+      <c r="JT9">
+        <v>9599744</v>
+      </c>
+      <c r="JU9">
+        <v>9599744</v>
+      </c>
+      <c r="JV9">
+        <v>9599744</v>
+      </c>
+      <c r="JW9">
+        <v>9599744</v>
+      </c>
+      <c r="JX9">
+        <v>9599744</v>
+      </c>
+      <c r="JY9">
+        <v>9599744</v>
+      </c>
+      <c r="JZ9">
+        <v>9599744</v>
+      </c>
+      <c r="KA9">
+        <v>9599744</v>
+      </c>
+      <c r="KB9">
+        <v>9599744</v>
+      </c>
+      <c r="KC9">
+        <v>9599744</v>
+      </c>
+      <c r="KD9">
+        <v>9584627</v>
+      </c>
+      <c r="KE9">
+        <v>9584627</v>
+      </c>
+      <c r="KF9">
+        <v>9584627</v>
+      </c>
+      <c r="KG9">
+        <v>9584627</v>
+      </c>
+      <c r="KH9">
+        <v>9584627</v>
+      </c>
+      <c r="KI9">
+        <v>9584627</v>
+      </c>
+      <c r="KJ9">
+        <v>9584627</v>
+      </c>
+      <c r="KK9">
+        <v>9584627</v>
+      </c>
+      <c r="KL9">
+        <v>9584627</v>
+      </c>
+      <c r="KM9">
+        <v>9584627</v>
+      </c>
+      <c r="KN9">
+        <v>9584627</v>
+      </c>
+      <c r="KO9">
+        <v>9584627</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="KX1:KY1"/>
